--- a/biology/Botanique/Phytophthora_nicotianae/Phytophthora_nicotianae.xlsx
+++ b/biology/Botanique/Phytophthora_nicotianae/Phytophthora_nicotianae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytophthora nicotianae est une espèce de « pseudochampignons » oomycètes de la famille des Peronosporaceae à répartition cosmopolite.
 C'est un organisme phytopathogène qui affecte de nombreuses espèces de plantes, ligneuses ou herbacées, dans environ 90 familles différentes.
-Isolé en Indonésie en 1896 sur le tabac (Nicotiana tabacum), il infecte de nombreuses cultures importantes, dont des Solanaceae, des Citrus, des cultures tropicales importantes comme le cocotier, l'ananas et l'eucalyptus[1].
+Isolé en Indonésie en 1896 sur le tabac (Nicotiana tabacum), il infecte de nombreuses cultures importantes, dont des Solanaceae, des Citrus, des cultures tropicales importantes comme le cocotier, l'ananas et l'eucalyptus.
 C'est en particulier l'un des agents de la pourriture rose des tubercules de pomme de terre, dont il affecte aussi le feuillage. On peut aussi le trouver dans les racines de Zamioculcas zamiifolia, plante d'appartement de la famille des Araceae.
 </t>
         </is>
@@ -514,11 +526,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eukaryota; Sar; Stramenopiles; Oomycota; Peronosporales; Peronosporaceae; Phytophthora.
-Synonymes
-Selon GBIF[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eukaryota; Sar; Stramenopiles; Oomycota; Peronosporales; Peronosporaceae; Phytophthora.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Phytophthora_nicotianae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytophthora_nicotianae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF :
 Blepharospora terrestris (Sherb.) Peyronel
 Phloeophthora nicotianae (Breda de Haan) G.W.Wilson
 Phloeophthora nicotiane (Breda de Haan) G.W.Wilson
@@ -543,8 +592,43 @@
 Phytophthora ricini Sawada
 Phytophthora tabaci Sawada
 Phytophthora terrestris Sherb.
-Liste des variétés
-Selon NCBI  (31 décembre 2020)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phytophthora_nicotianae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phytophthora_nicotianae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 décembre 2020) :
 Phytophthora nicotianae var. parasitica</t>
         </is>
       </c>
